--- a/atividade.xlsx
+++ b/atividade.xlsx
@@ -9,11 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha3" sheetId="3" r:id="rId2"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$7:$E$31</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Mês</t>
   </si>
@@ -93,6 +98,21 @@
   </si>
   <si>
     <t>Qual o valor total das vendas no mês de abril</t>
+  </si>
+  <si>
+    <t>Vendedores</t>
+  </si>
+  <si>
+    <t>Mês de vendas</t>
+  </si>
+  <si>
+    <t>Maior Valor</t>
+  </si>
+  <si>
+    <t>Pior venda na Cidade 01</t>
+  </si>
+  <si>
+    <t>dfgdfg</t>
   </si>
 </sst>
 </file>
@@ -102,7 +122,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +137,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -126,7 +161,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -134,21 +169,76 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Título 1" xfId="2" builtinId="16"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -424,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,468 +529,483 @@
     <col min="5" max="5" width="8" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>0</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>2</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="H7">
+        <v>2633</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="1">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" s="1">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9" s="1">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" s="1">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E11" s="1">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="1">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
         <v>16</v>
       </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="1">
         <v>424</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>5</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>6</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14" s="1">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E15" s="1">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16" s="1">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E17" s="1">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>
       </c>
       <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="1">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
         <v>16</v>
       </c>
-      <c r="D18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="1">
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="1">
         <v>479</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>5</v>
-      </c>
-      <c r="B19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="1">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>6</v>
       </c>
       <c r="B20" t="s">
         <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E20" s="1">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+      <c r="H20">
+        <v>3125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
         <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E21" s="1">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B22" t="s">
         <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E22" s="1">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
         <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E23" s="1">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B24" t="s">
         <v>13</v>
       </c>
       <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s">
         <v>16</v>
       </c>
-      <c r="D24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="1">
+      <c r="D25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="1">
         <v>565</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>5</v>
-      </c>
-      <c r="B25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="1">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>6</v>
       </c>
       <c r="B26" t="s">
         <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E26" s="1">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
         <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E27" s="1">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B28" t="s">
         <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E28" s="1">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s">
         <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E29" s="1">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B30" t="s">
         <v>14</v>
       </c>
       <c r="C30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="1">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
         <v>16</v>
       </c>
-      <c r="D30" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" s="1">
+      <c r="D31" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="1">
         <v>596</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A7:E31"/>
   <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
@@ -909,4 +1014,277 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="F1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="J1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:12" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="7">
+        <f>SUMIF(Planilha1!B7:B31,Planilha2!A2,Planilha1!E7:E31)</f>
+        <v>2633</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2"/>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1">
+        <f>SUMIF(Planilha1!$A$7:$A$31,Planilha2!F2,Planilha1!$E$7:$E$31)</f>
+        <v>1851</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="1">
+        <f>SUMIF(Planilha1!D8:D31,Planilha2!J2,Planilha1!E8:E31)</f>
+        <v>5820</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="7">
+        <f>SUMIF(Planilha1!$B$7:$B$31,Planilha2!A3,Planilha1!$E$7:$E$31)</f>
+        <v>2878</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3"/>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1">
+        <f>SUMIF(Planilha1!$A$7:$A$31,Planilha2!F3,Planilha1!$E$7:$E$31)</f>
+        <v>1783</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="1">
+        <f>SUMIF(Planilha1!D8:D31,Planilha2!J3,Planilha1!E8:E31)</f>
+        <v>5722</v>
+      </c>
+      <c r="L3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="7">
+        <f>SUMIF(Planilha1!$B$7:$B$31,Planilha2!A4,Planilha1!$E$7:$E$31)</f>
+        <v>3125</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4"/>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1">
+        <f>SUMIF(Planilha1!$A$7:$A$31,Planilha2!F4,Planilha1!$E$7:$E$31)</f>
+        <v>2163</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="7">
+        <f>SUMIF(Planilha1!$B$7:$B$31,Planilha2!A5,Planilha1!$E$7:$E$31)</f>
+        <v>2906</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5"/>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="1">
+        <f>SUMIF(Planilha1!$A$7:$A$31,Planilha2!F5,Planilha1!$E$7:$E$31)</f>
+        <v>1875</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="1">
+        <f>SUMIF(Planilha1!$A$7:$A$31,Planilha2!F6,Planilha1!$E$7:$E$31)</f>
+        <v>1806</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1">
+        <f>SUMIF(Planilha1!$A$7:$A$31,Planilha2!F7,Planilha1!$E$7:$E$31)</f>
+        <v>2064</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1">
+        <f>LARGE(B2:B5,1)</f>
+        <v>3125</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="1">
+        <f>LARGE(G2:G7,1)</f>
+        <v>2163</v>
+      </c>
+      <c r="J9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="1">
+        <f>MAX(K2:K3)</f>
+        <v>5820</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="str">
+        <f>VLOOKUP(B9,B2:C5,2,0)</f>
+        <v>Vendedor 3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="str">
+        <f>VLOOKUP(G9,G2:H7,2,0)</f>
+        <v>Março</v>
+      </c>
+      <c r="J10" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="1" t="str">
+        <f>VLOOKUP(K9,K2:L3,2,0)</f>
+        <v>Norte</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <f>VLOOKUP(B9,B2:C5,1,0)</f>
+        <v>3125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E12" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:K1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>$B$10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>$G$9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>$B$9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>